--- a/biology/Biologie cellulaire et moléculaire/Génotypage/Génotypage.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Génotypage/Génotypage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9notypage</t>
+          <t>Génotypage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le génotypage est la méthode d’acquisition de données permettant de déterminer l'identité d'une variation génétique, à une position spécifique sur tout ou partie du génome, pour un individu ou un groupe d'individus donné appartenant à une espèce animale, végétale, fongique... Il est effectué de manière standardisée et automatisée par des robots (robots de pipetage, robot extracteur d'ADN...), thermocycleurs, séquenceurs capillaires.
 Parallèlement à de grands programmes visant à cartographier le génome entier de certaines espèces d'intérêt médical ou économique, les laboratoires utilisent, avec des résultats plus rapides, différentes techniques, dont :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9notypage</t>
+          <t>Génotypage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le génotypage permet d'étudier un génome entier ou certains de ces éléments d'intérêt du point de vue de
 la diversité génétique et l'évolution (phylogénie, etc.)...
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9notypage</t>
+          <t>Génotypage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,12 +567,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir des années 1990, et grâce aux progrès de la biologie moléculaire d'une part, des robots de laboratoire et de l'informatique et de la bio-informatique d'autre part, le génotypage a beaucoup gagné en vitesse, tout en devenant moins coûteux.
 De nombreuses plates-formes de génotypage SNP à haut débit sont maintenant disponibles de par le monde, mais essentiellement dans les pays riches.
-Une seule et même puce à ADN à haute densité, permet maintenant[1] théoriquement non seulement de génotyper une région du génome bactérien suffisante pour identifier certaines espèces, mais aussi de vérifier une éventuelle antibiorésistance (mycobactéries par exemple, dont celles qui sont responsables de la tuberculose, ou qui ont développé des gènes d'antibiorésistance à certains médicaments dont la rifampicine), ce qui peut être d'intérêt médical.
-Des puces à ADN pourront probablement bientôt contribuer à mieux connaitre la diversité génétique de certaines populations, d'intérêt médical, ou menacées ou relictuelles[2].
+Une seule et même puce à ADN à haute densité, permet maintenant théoriquement non seulement de génotyper une région du génome bactérien suffisante pour identifier certaines espèces, mais aussi de vérifier une éventuelle antibiorésistance (mycobactéries par exemple, dont celles qui sont responsables de la tuberculose, ou qui ont développé des gènes d'antibiorésistance à certains médicaments dont la rifampicine), ce qui peut être d'intérêt médical.
+Des puces à ADN pourront probablement bientôt contribuer à mieux connaitre la diversité génétique de certaines populations, d'intérêt médical, ou menacées ou relictuelles.
 </t>
         </is>
       </c>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9notypage</t>
+          <t>Génotypage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parfois, toute l'information génétique n'est pas accessible via l'ADN, et le séquençage du génome d'un individu ne traduit pas la richesse génétique éventuelle d'une population.
 Dans certains cas (ADN récupéré sur des cadavres, des animaux naturalisés...) des risques importants de contamination ou de dégradation de l'ADN existent.
